--- a/data/evaluation/evaluation_North_Summer_Carrots.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Carrots.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7763.647530864198</v>
+        <v>8032.240123456791</v>
       </c>
       <c r="C3" t="n">
-        <v>99474545.88568415</v>
+        <v>104510119.8116101</v>
       </c>
       <c r="D3" t="n">
-        <v>9973.692690557702</v>
+        <v>10223.01911431306</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1452160115798946</v>
+        <v>-0.2031888310194707</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8261.943503639364</v>
+        <v>8334.230685906683</v>
       </c>
       <c r="C4" t="n">
-        <v>107436318.4652348</v>
+        <v>108486801.8281368</v>
       </c>
       <c r="D4" t="n">
-        <v>10365.14922542048</v>
+        <v>10415.6997762098</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2368771431535681</v>
+        <v>-0.2489709944637939</v>
       </c>
     </row>
     <row r="5">
